--- a/sendSurvey/contacts.xlsx
+++ b/sendSurvey/contacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mathgira\Documents\NetBeansProjects\sendSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathgira\workspace\gitProjects\Survey\sendSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>firstname</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>math.girardon@hotmail.fr</t>
+  </si>
+  <si>
+    <t>Hassen</t>
+  </si>
+  <si>
+    <t>Makni</t>
+  </si>
+  <si>
+    <t>makni.hassen@hotmail.fr</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +419,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -418,6 +435,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sendSurvey/contacts.xlsx
+++ b/sendSurvey/contacts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mathgira\Documents\NetBeansProjects\sendSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu\workspace\gitProjects\Survey\sendSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>firstname</t>
   </si>
@@ -45,12 +45,24 @@
   </si>
   <si>
     <t>math.girardon@hotmail.fr</t>
+  </si>
+  <si>
+    <t>Jean-Michel</t>
+  </si>
+  <si>
+    <t>jm.girardon@wanadoo.fr</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>florence.girardon@wanadoo.fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,6 +198,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,10 +422,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
@@ -410,14 +456,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sendSurvey/contacts.xlsx
+++ b/sendSurvey/contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>firstname</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>math.girardon@hotmail.fr</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -413,7 +410,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +444,6 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
